--- a/input_data.xlsx
+++ b/input_data.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>_uid_198_0</t>
+          <t>_uid_221_0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>_uid_198_1</t>
+          <t>_uid_221_1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -559,7 +559,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>_uid_198_2</t>
+          <t>_uid_221_2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>_uid_198_3</t>
+          <t>_uid_221_3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
